--- a/WorkBot/refactor/data/orders/Sysco/Sysco_Triphammer_2025-08-07.xlsx
+++ b/WorkBot/refactor/data/orders/Sysco/Sysco_Triphammer_2025-08-07.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,6 +826,816 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7917707</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Chicken Leg Quarters</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3157690</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rice Jasmine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4096954</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lentils - Dried Bean</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7524051</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hot Sauce - Franks Gal</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>5818380</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Can - Coconut Milk</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>185.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5833462</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jalapenos (Sliced)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>105.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2366607</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liquid Egg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>40.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7226918</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mozz (Sliced)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>53.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>8489148</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Smoked Turkey (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>461.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>8768871</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Juice - Lime</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>74.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7143223</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sausage - Vegan Patty</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>177.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3413107</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Brie</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>54.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4171902</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Manchego Cheese</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3617531</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Roasted Root Vegetables</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>117.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4438911</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Grain Blend 5 Way</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>233.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>7133036</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Chicken - Diced White &amp; Dark</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>327.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6986178</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Spanakopita - Mini</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>263.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>6985683</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Quiche - Mini (Asst)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>70.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>283.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7213975</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Potsticker - Pork &amp; Veg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>42.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>42.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7101552</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Potsticker - Vegetable</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0017354</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hash Brown</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>47.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4617771</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Egg Patty</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>46.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>469.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4828802</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Heavy Cream</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>52.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>52.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1735372</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Cucumber (English)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1821537</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Garlic - Fresh (Peeled)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2004547</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Herb - Basil (Fresh)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>43.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1008143</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Kale - Fresh</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1723857</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Lettuce - Green Leaf</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>59.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1094721</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Onion - Yellow Fresh</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>24.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0683696</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Tomato - Fresh Sliced</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>443.94</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
